--- a/Data/Delphi round 1/response sheets/Mick Br - give your expert opinion on woodland condition.xlsx
+++ b/Data/Delphi round 1/response sheets/Mick Br - give your expert opinion on woodland condition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Delphi round 1/response sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="8_{428F768D-10A5-461B-9ED6-BE1AAB0963A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{193A6B42-DD7A-4305-8A51-0A698DFFAA05}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="435" windowWidth="15450" windowHeight="14925" activeTab="1" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age distribution" sheetId="20" r:id="rId1"/>
@@ -262,6 +262,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2: Enter values in the table below to describe that </t>
     </r>
@@ -271,6 +272,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>typical</t>
     </r>
@@ -279,6 +281,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> relationship</t>
     </r>
@@ -861,12 +864,14 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -22250,7 +22255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874D2522-2B76-4503-81F6-47499AF8A525}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -22678,7 +22683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADE01BF-891C-4D98-B138-661CC22AFA79}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -26121,6 +26126,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF102A4A1803344B8D888EB900B09227" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48a4698649fdfc57b5dc6569b12cc7f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="090e8724-afd2-4a00-8d2e-c87448cad135" xmlns:ns3="cce065d8-4207-498d-8ddb-77753710233a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b3ee90e5f748b509f56873925e16c5c" ns2:_="" ns3:_="">
     <xsd:import namespace="090e8724-afd2-4a00-8d2e-c87448cad135"/>
@@ -26317,15 +26331,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -26346,6 +26351,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74244819-9B65-4A2E-A25F-EB3295DF9762}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26364,14 +26377,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
   <ds:schemaRefs>

--- a/Data/Delphi round 1/response sheets/Mick Br - give your expert opinion on woodland condition.xlsx
+++ b/Data/Delphi round 1/response sheets/Mick Br - give your expert opinion on woodland condition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{428F768D-10A5-461B-9ED6-BE1AAB0963A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{193A6B42-DD7A-4305-8A51-0A698DFFAA05}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{428F768D-10A5-461B-9ED6-BE1AAB0963A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B989ED41-0701-4542-B675-30CF3B7BBD99}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="7" activeTab="13" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age distribution" sheetId="20" r:id="rId1"/>
@@ -3596,9 +3596,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -3614,9 +3620,15 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -21478,8 +21490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A60C532-5154-4BAB-8C83-06A0BC57A749}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21608,10 +21620,10 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
@@ -21631,10 +21643,10 @@
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -21644,12 +21656,20 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="2">
+        <v>100</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10</v>
+      </c>
       <c r="I17" s="28" t="s">
         <v>11</v>
       </c>
@@ -22683,7 +22703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADE01BF-891C-4D98-B138-661CC22AFA79}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -26126,12 +26146,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
+      <UserInfo>
+        <DisplayName>Christine Reid</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mick Bracken</DisplayName>
+        <AccountId>40</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26332,28 +26362,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
-      <UserInfo>
-        <DisplayName>Christine Reid</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mick Bracken</DisplayName>
-        <AccountId>40</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26378,11 +26400,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>